--- a/output0.xlsx
+++ b/output0.xlsx
@@ -17,27 +17,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Etafakna</t>
-  </si>
-  <si>
-    <t>Gafsa le 16/9/2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> le </t>
   </si>
   <si>
     <t xml:space="preserve">Client : </t>
   </si>
   <si>
-    <t>Wajih</t>
-  </si>
-  <si>
     <t>Matricule Fiscale:</t>
   </si>
   <si>
-    <t>2230</t>
-  </si>
-  <si>
-    <t>FACTURE N° /32</t>
+    <t>FACTURE N° /</t>
   </si>
   <si>
     <t>Désignation</t>
@@ -52,15 +46,6 @@
     <t>P T HT</t>
   </si>
   <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1450</t>
-  </si>
-  <si>
     <t>Total HT</t>
   </si>
   <si>
@@ -79,13 +64,13 @@
     <t>Net à payer</t>
   </si>
   <si>
-    <t>Arrêté la présente facture à la somme de One dinar</t>
-  </si>
-  <si>
-    <t>Tunis/ariana et ,Tunisie</t>
-  </si>
-  <si>
-    <t>MF:1111</t>
+    <t xml:space="preserve">Arrêté la présente facture à la somme de </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> et ,Tunisie</t>
+  </si>
+  <si>
+    <t>MF:</t>
   </si>
 </sst>
 </file>
@@ -906,17 +891,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -944,7 +929,7 @@
     <row r="17" ht="20" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -974,39 +959,47 @@
     <row r="21" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="E21" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="17" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E22" s="20">
-        <v>10150</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="23">
+        <v>NaN</v>
+      </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1085,16 +1078,16 @@
       <c r="B34" s="34"/>
       <c r="C34" s="28"/>
       <c r="D34" s="35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E34" s="23">
-        <v>10150</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="4"/>
@@ -1105,10 +1098,10 @@
       <c r="B36" s="37"/>
       <c r="C36" s="4"/>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E36" s="23">
-        <v>1928.5</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1123,7 +1116,7 @@
       <c r="B38" s="37"/>
       <c r="C38" s="4"/>
       <c r="D38" s="39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E38" s="23">
         <v>0.6</v>
@@ -1143,18 +1136,18 @@
       <c r="D40" s="4"/>
       <c r="E40" s="41"/>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="42" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
       <c r="E41" s="45">
-        <v>12678.5</v>
+        <v>NaN</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="47"/>
@@ -1222,7 +1215,7 @@
     <row r="46" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="50" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C46" s="51"/>
       <c r="D46" s="51"/>
@@ -1240,7 +1233,7 @@
     </row>
     <row r="52" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="56" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
@@ -1248,7 +1241,7 @@
     </row>
     <row r="53" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>

--- a/output0.xlsx
+++ b/output0.xlsx
@@ -17,21 +17,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> le </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+  <si>
+    <t>Etafakba</t>
+  </si>
+  <si>
+    <t>Etafakna le 27/9/2022</t>
   </si>
   <si>
     <t xml:space="preserve">Client : </t>
   </si>
   <si>
+    <t>Nike</t>
+  </si>
+  <si>
     <t>Matricule Fiscale:</t>
   </si>
   <si>
-    <t>FACTURE N° /</t>
+    <t>FACTURE N° /1782</t>
   </si>
   <si>
     <t>Désignation</t>
@@ -46,6 +49,12 @@
     <t>P T HT</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
     <t>Total HT</t>
   </si>
   <si>
@@ -64,13 +73,13 @@
     <t>Net à payer</t>
   </si>
   <si>
-    <t xml:space="preserve">Arrêté la présente facture à la somme de </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> et ,Tunisie</t>
-  </si>
-  <si>
-    <t>MF:</t>
+    <t>Arrêté la présente facture à la somme de Fares</t>
+  </si>
+  <si>
+    <t>Tunis et 2028,Tunisie</t>
+  </si>
+  <si>
+    <t>MF:1892</t>
   </si>
 </sst>
 </file>
@@ -891,17 +900,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>0</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -929,7 +938,7 @@
     <row r="17" ht="20" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -959,47 +968,39 @@
     <row r="21" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E22" s="20">
-        <v>NaN</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="23">
-        <v>NaN</v>
-      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1078,16 +1079,16 @@
       <c r="B34" s="34"/>
       <c r="C34" s="28"/>
       <c r="D34" s="35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E34" s="23">
-        <v>NaN</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="4"/>
@@ -1098,10 +1099,10 @@
       <c r="B36" s="37"/>
       <c r="C36" s="4"/>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E36" s="23">
-        <v>NaN</v>
+        <v>383.04</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,7 +1117,7 @@
       <c r="B38" s="37"/>
       <c r="C38" s="4"/>
       <c r="D38" s="39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E38" s="23">
         <v>0.6</v>
@@ -1136,18 +1137,18 @@
       <c r="D40" s="4"/>
       <c r="E40" s="41"/>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
       <c r="E41" s="45">
-        <v>NaN</v>
+        <v>2999.04</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="47"/>
@@ -1215,7 +1216,7 @@
     <row r="46" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C46" s="51"/>
       <c r="D46" s="51"/>
@@ -1233,7 +1234,7 @@
     </row>
     <row r="52" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="56" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
@@ -1241,7 +1242,7 @@
     </row>
     <row r="53" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="56" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>

--- a/output0.xlsx
+++ b/output0.xlsx
@@ -17,24 +17,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
-  <si>
-    <t>Etafakba</t>
-  </si>
-  <si>
-    <t>Etafakna le 27/9/2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>Hdbd</t>
+  </si>
+  <si>
+    <t>Bsbdb le 28/9/2022</t>
   </si>
   <si>
     <t xml:space="preserve">Client : </t>
   </si>
   <si>
-    <t>Nike</t>
+    <t>Hdbbd</t>
   </si>
   <si>
     <t>Matricule Fiscale:</t>
   </si>
   <si>
-    <t>FACTURE N° /1782</t>
+    <t>Bdbd</t>
+  </si>
+  <si>
+    <t>FACTURE N° /Bdbdb</t>
   </si>
   <si>
     <t>Désignation</t>
@@ -49,10 +52,10 @@
     <t>P T HT</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>168</t>
+    <t>Hdhdj</t>
+  </si>
+  <si>
+    <t>Un djdj</t>
   </si>
   <si>
     <t>Total HT</t>
@@ -73,13 +76,13 @@
     <t>Net à payer</t>
   </si>
   <si>
-    <t>Arrêté la présente facture à la somme de Fares</t>
-  </si>
-  <si>
-    <t>Tunis et 2028,Tunisie</t>
-  </si>
-  <si>
-    <t>MF:1892</t>
+    <t>Arrêté la présente facture à la somme de 1727</t>
+  </si>
+  <si>
+    <t>Jdjdj et Jdjd,Tunisie</t>
+  </si>
+  <si>
+    <t>MF:Jdjjd</t>
   </si>
 </sst>
 </file>
@@ -910,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -938,7 +941,7 @@
     <row r="17" ht="20" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -968,31 +971,31 @@
     <row r="21" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="20">
-        <v>2016</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,16 +1082,16 @@
       <c r="B34" s="34"/>
       <c r="C34" s="28"/>
       <c r="D34" s="35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="23">
-        <v>2016</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="4"/>
@@ -1099,10 +1102,10 @@
       <c r="B36" s="37"/>
       <c r="C36" s="4"/>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" s="23">
-        <v>383.04</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1117,7 +1120,7 @@
       <c r="B38" s="37"/>
       <c r="C38" s="4"/>
       <c r="D38" s="39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" s="23">
         <v>0.6</v>
@@ -1137,18 +1140,18 @@
       <c r="D40" s="4"/>
       <c r="E40" s="41"/>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
       <c r="E41" s="45">
-        <v>2999.04</v>
+        <v>NaN</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="47"/>
@@ -1216,7 +1219,7 @@
     <row r="46" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" s="51"/>
       <c r="D46" s="51"/>
@@ -1234,7 +1237,7 @@
     </row>
     <row r="52" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
@@ -1242,7 +1245,7 @@
     </row>
     <row r="53" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>

--- a/output0.xlsx
+++ b/output0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t/>
   </si>
@@ -31,7 +31,7 @@
     <t>Matricule Fiscale:</t>
   </si>
   <si>
-    <t>FACTURE N° /</t>
+    <t>DEVIS N° /</t>
   </si>
   <si>
     <t>Désignation</t>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">Arrêté la présente facture à la somme de </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> et ,Tunisie</t>
   </si>
   <si>
     <t>MF:</t>
@@ -973,33 +970,17 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20">
-        <v>NaN</v>
-      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="23">
-        <v>NaN</v>
-      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1081,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="23">
-        <v>NaN</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="23">
-        <v>NaN</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,7 +1128,7 @@
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
       <c r="E41" s="45">
-        <v>NaN</v>
+        <v>600</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="47"/>
@@ -1233,7 +1214,7 @@
     </row>
     <row r="52" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="56" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
@@ -1241,7 +1222,7 @@
     </row>
     <row r="53" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>

--- a/output0.xlsx
+++ b/output0.xlsx
@@ -31,7 +31,7 @@
     <t>Matricule Fiscale:</t>
   </si>
   <si>
-    <t>DEVIS N° /</t>
+    <t>FACTURE N° /</t>
   </si>
   <si>
     <t>Désignation</t>

--- a/output0.xlsx
+++ b/output0.xlsx
@@ -17,21 +17,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>Yfjf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client : </t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> le </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client : </t>
-  </si>
-  <si>
     <t>Matricule Fiscale:</t>
   </si>
   <si>
-    <t>DEVIS N° /</t>
+    <t>FACTURE N° /</t>
   </si>
   <si>
     <t>Désignation</t>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>P T HT</t>
+  </si>
+  <si>
+    <t>Bdjf</t>
   </si>
   <si>
     <t>Total HT</t>
@@ -888,17 +894,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>0</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -926,7 +932,7 @@
     <row r="17" ht="20" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -956,24 +962,32 @@
     <row r="21" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="20">
+        <v>NaN</v>
+      </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1059,16 +1073,16 @@
       <c r="B34" s="34"/>
       <c r="C34" s="28"/>
       <c r="D34" s="35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34" s="23">
-        <v>0</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="4"/>
@@ -1079,10 +1093,10 @@
       <c r="B36" s="37"/>
       <c r="C36" s="4"/>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E36" s="23">
-        <v>0</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,7 +1111,7 @@
       <c r="B38" s="37"/>
       <c r="C38" s="4"/>
       <c r="D38" s="39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E38" s="23">
         <v>0.6</v>
@@ -1117,18 +1131,18 @@
       <c r="D40" s="4"/>
       <c r="E40" s="41"/>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
       <c r="E41" s="45">
-        <v>600</v>
+        <v>NaN</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="47"/>
@@ -1196,7 +1210,7 @@
     <row r="46" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C46" s="51"/>
       <c r="D46" s="51"/>
@@ -1214,7 +1228,7 @@
     </row>
     <row r="52" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="56" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
@@ -1222,7 +1236,7 @@
     </row>
     <row r="53" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>

--- a/output0.xlsx
+++ b/output0.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> le </t>
+    <t xml:space="preserve"> le 11/10/2022</t>
   </si>
   <si>
     <t xml:space="preserve">Client : </t>
@@ -31,7 +31,7 @@
     <t>Matricule Fiscale:</t>
   </si>
   <si>
-    <t>DEVIS N° /</t>
+    <t>FACTURE N° /</t>
   </si>
   <si>
     <t>Désignation</t>
@@ -46,6 +46,12 @@
     <t>P T HT</t>
   </si>
   <si>
+    <t>Jjdjdjdjf</t>
+  </si>
+  <si>
+    <t>287273</t>
+  </si>
+  <si>
     <t>Total HT</t>
   </si>
   <si>
@@ -64,10 +70,13 @@
     <t>Net à payer</t>
   </si>
   <si>
-    <t xml:space="preserve">Arrêté la présente facture à la somme de </t>
-  </si>
-  <si>
-    <t>MF:</t>
+    <t>Arrêté la présente facture à la somme de Bdjd</t>
+  </si>
+  <si>
+    <t>Jdjd</t>
+  </si>
+  <si>
+    <t>MF:Bxbxn</t>
   </si>
 </sst>
 </file>
@@ -970,10 +979,18 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="18">
+        <v>6</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1723638</v>
+      </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1059,16 +1076,16 @@
       <c r="B34" s="34"/>
       <c r="C34" s="28"/>
       <c r="D34" s="35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34" s="23">
-        <v>0</v>
+        <v>1723638</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="4"/>
@@ -1079,10 +1096,10 @@
       <c r="B36" s="37"/>
       <c r="C36" s="4"/>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E36" s="23">
-        <v>0</v>
+        <v>327491.22</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,7 +1114,7 @@
       <c r="B38" s="37"/>
       <c r="C38" s="4"/>
       <c r="D38" s="39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E38" s="23">
         <v>0.6</v>
@@ -1117,18 +1134,18 @@
       <c r="D40" s="4"/>
       <c r="E40" s="41"/>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
       <c r="E41" s="45">
-        <v>600</v>
+        <v>2051729.22</v>
       </c>
       <c r="J41" s="46"/>
       <c r="K41" s="47"/>
@@ -1196,7 +1213,7 @@
     <row r="46" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C46" s="51"/>
       <c r="D46" s="51"/>
@@ -1214,7 +1231,7 @@
     </row>
     <row r="52" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="56" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
@@ -1222,7 +1239,7 @@
     </row>
     <row r="53" ht="15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="56" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C53" s="56"/>
       <c r="D53" s="56"/>

--- a/output0.xlsx
+++ b/output0.xlsx
@@ -17,12 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> و 28/11/2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>اتفقتا</t>
+  </si>
+  <si>
+    <t>تونس و 12/1/2023</t>
+  </si>
+  <si>
+    <t>وجيه</t>
   </si>
   <si>
     <t xml:space="preserve">:الحريف </t>
@@ -31,7 +34,7 @@
     <t>:الدليل الجبائي للشركة</t>
   </si>
   <si>
-    <t xml:space="preserve"> /° N FACTURE</t>
+    <t>22 /° N FACTURE</t>
   </si>
   <si>
     <t>المبلغ</t>
@@ -46,6 +49,12 @@
     <t>المنتج</t>
   </si>
   <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>تونس</t>
+  </si>
+  <si>
     <t>المجموع</t>
   </si>
   <si>
@@ -64,10 +73,13 @@
     <t>صافي للدفع</t>
   </si>
   <si>
-    <t xml:space="preserve">تمت الموافقة على هذه الفاتورة بمبلغ  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> : الدليل الجبائي للحريف</t>
+    <t>تمت الموافقة على هذه الفاتورة بمبلغ  خمسة الاف</t>
+  </si>
+  <si>
+    <t>233a</t>
+  </si>
+  <si>
+    <t>خمسة الاف : الدليل الجبائي للحريف</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1020,10 @@
     <row r="12" ht="21.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
@@ -1019,10 +1031,10 @@
     <row r="13" ht="21.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14">
-        <v>28</v>
+        <v>2120</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
@@ -1051,7 +1063,7 @@
     <row r="17" ht="24.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -1081,47 +1093,39 @@
     <row r="21" ht="23.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="23.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="36">
-        <v>NaN</v>
+        <v>3000</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D22" s="38">
+        <v>2</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="40">
-        <v>NaN</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>0</v>
-      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="42"/>
     </row>
     <row r="24" ht="20.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
@@ -1196,10 +1200,10 @@
     <row r="34" ht="20.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="49">
-        <v>NaN</v>
+        <v>3000</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="42"/>
@@ -1210,7 +1214,7 @@
         <v>0.19</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="42"/>
@@ -1225,10 +1229,10 @@
     <row r="37" ht="20.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="54">
-        <v>NaN</v>
+        <v>570</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="42"/>
@@ -1243,10 +1247,10 @@
     <row r="39" ht="20.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="42"/>
@@ -1261,10 +1265,10 @@
     <row r="41" ht="20.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="58">
-        <v>NaN</v>
+        <v>3570.6</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D41" s="60"/>
       <c r="E41" s="61"/>
@@ -1300,7 +1304,7 @@
     <row r="46" ht="18.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="67" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C46" s="68"/>
       <c r="D46" s="68"/>
@@ -1344,7 +1348,7 @@
     <row r="52" ht="15" customHeight="1" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="74"/>
       <c r="B52" s="75" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
@@ -1353,7 +1357,7 @@
     <row r="53" ht="15" customHeight="1" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="74"/>
       <c r="B53" s="75" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
